--- a/results/resultsWithOutliers.xlsx
+++ b/results/resultsWithOutliers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristina García\Documents\Proyectos\1stStepsPhD\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\Estudio\1stStepsPhD\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB56178-7A9F-48D7-95E3-75B6AF16E0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plasmaAnt" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="231">
   <si>
     <t>plasmaAnt</t>
   </si>
@@ -725,7 +726,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -815,7 +816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -838,13 +839,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -854,6 +849,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,11 +1138,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F109" sqref="A10:F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1325,12 +1329,12 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:20">
       <c r="B11" s="4" t="s">
@@ -1348,15 +1352,15 @@
       <c r="F11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1388,7 +1392,7 @@
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="12"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="5" t="s">
         <v>98</v>
       </c>
@@ -1401,7 +1405,7 @@
       <c r="F13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="16" t="s">
         <v>66</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -1413,7 +1417,7 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A14" s="12"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="5" t="s">
         <v>63</v>
       </c>
@@ -1429,36 +1433,36 @@
       <c r="F14" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="5" t="s">
         <v>98</v>
       </c>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1">
-      <c r="G15" s="12"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="12" t="s">
         <v>146</v>
       </c>
       <c r="L15" s="7"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="I17" s="11" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="I17" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="4" t="s">
@@ -1493,7 +1497,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1505,7 +1509,7 @@
       <c r="F19" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="16" t="s">
         <v>66</v>
       </c>
       <c r="H19" s="5" t="s">
@@ -1517,25 +1521,25 @@
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A20" s="12"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="5" t="s">
         <v>98</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="12" t="s">
         <v>139</v>
       </c>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A21" s="12"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="5" t="s">
         <v>63</v>
       </c>
@@ -1543,29 +1547,29 @@
       <c r="F21" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="12"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="12" t="s">
         <v>173</v>
       </c>
       <c r="L21" s="7"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="I24" s="11" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="I24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
     </row>
     <row r="25" spans="1:12">
       <c r="B25" s="4" t="s">
@@ -1600,7 +1604,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1627,7 +1631,7 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A27" s="12"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="5" t="s">
         <v>98</v>
       </c>
@@ -1641,15 +1645,15 @@
       <c r="H27" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="L27" s="14" t="s">
+      <c r="L27" s="12" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A28" s="12"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="5" t="s">
         <v>63</v>
       </c>
@@ -1664,20 +1668,20 @@
         <v>63</v>
       </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="L28" s="14" t="s">
+      <c r="L28" s="12" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:12">
@@ -1696,15 +1700,15 @@
       <c r="F31" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -1739,7 +1743,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A33" s="12"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="5" t="s">
         <v>98</v>
       </c>
@@ -1752,18 +1756,18 @@
       <c r="H33" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="L33" s="14" t="s">
+      <c r="L33" s="12" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A34" s="12"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
@@ -1783,13 +1787,13 @@
       <c r="H34" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="L34" s="14" t="s">
+      <c r="L34" s="12" t="s">
         <v>227</v>
       </c>
     </row>
@@ -1798,24 +1802,24 @@
       <c r="H35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="12" t="s">
         <v>224</v>
       </c>
       <c r="J35" s="7"/>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="L35" s="14" t="s">
+      <c r="L35" s="12" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1">
       <c r="B37" s="4" t="s">
@@ -1833,27 +1837,27 @@
       <c r="F37" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="12" t="s">
         <v>190</v>
       </c>
       <c r="H38" s="4" t="s">
@@ -1873,11 +1877,11 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A39" s="12"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="12" t="s">
         <v>75</v>
       </c>
       <c r="G39" s="8" t="s">
@@ -1889,20 +1893,20 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="14" t="s">
+      <c r="L39" s="12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A40" s="12"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="12" t="s">
         <v>189</v>
       </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="12" t="s">
         <v>100</v>
       </c>
       <c r="F40" s="7"/>
@@ -1910,10 +1914,10 @@
       <c r="H40" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I40" s="14" t="s">
+      <c r="I40" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="J40" s="12" t="s">
         <v>130</v>
       </c>
       <c r="L40" s="7"/>
@@ -1923,23 +1927,23 @@
       <c r="H41" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="12" t="s">
         <v>172</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="L41" s="14" t="s">
+      <c r="L41" s="12" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1">
       <c r="B43" s="4" t="s">
@@ -1957,24 +1961,24 @@
       <c r="F43" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="12" t="s">
         <v>197</v>
       </c>
       <c r="H44" s="4" t="s">
@@ -1994,17 +1998,17 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A45" s="12"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="12" t="s">
         <v>183</v>
       </c>
       <c r="G45" s="8" t="s">
@@ -2013,34 +2017,34 @@
       <c r="H45" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I45" s="14" t="s">
+      <c r="I45" s="12" t="s">
         <v>229</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
-      <c r="L45" s="14" t="s">
+      <c r="L45" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A46" s="12"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="12" t="s">
         <v>191</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I46" s="14" t="s">
+      <c r="I46" s="12" t="s">
         <v>203</v>
       </c>
       <c r="J46" s="7"/>
@@ -2051,11 +2055,11 @@
       <c r="H47" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I47" s="14" t="s">
+      <c r="I47" s="12" t="s">
         <v>132</v>
       </c>
       <c r="J47" s="7"/>
-      <c r="L47" s="14" t="s">
+      <c r="L47" s="12" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2083,12 +2087,12 @@
       <c r="F49" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I49" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" thickBot="1">
       <c r="A50" s="8" t="s">
@@ -2097,13 +2101,13 @@
       <c r="B50" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="12" t="s">
         <v>202</v>
       </c>
       <c r="H50" s="4" t="s">
@@ -2144,11 +2148,11 @@
       <c r="B52" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="12" t="s">
         <v>201</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="12" t="s">
         <v>199</v>
       </c>
       <c r="G52" s="8"/>
@@ -2164,10 +2168,10 @@
         <v>63</v>
       </c>
       <c r="I53" s="7"/>
-      <c r="J53" s="14" t="s">
+      <c r="J53" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="L53" s="14" t="s">
+      <c r="L53" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2203,11 +2207,11 @@
       <c r="B56" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="12" t="s">
         <v>134</v>
       </c>
       <c r="E56" s="7"/>
-      <c r="F56" s="14" t="s">
+      <c r="F56" s="12" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2259,16 +2263,16 @@
       <c r="B63" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="F63" s="14" t="s">
+      <c r="F63" s="12" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2277,13 +2281,13 @@
       <c r="B64" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" s="12" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2292,26 +2296,478 @@
       <c r="B65" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="F65" s="14" t="s">
+      <c r="F65" s="12" t="s">
         <v>205</v>
       </c>
     </row>
+    <row r="67" spans="1:6">
+      <c r="C67" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="B68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A70" s="16"/>
+      <c r="B70" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A71" s="16"/>
+      <c r="B71" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="C73" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="B74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A75" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A76" s="16"/>
+      <c r="B76" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A77" s="16"/>
+      <c r="B77" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="C80" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="B81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A82" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A83" s="11"/>
+      <c r="B83" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A84" s="11"/>
+      <c r="B84" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="C87" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B88" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A89" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A90" s="11"/>
+      <c r="B90" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A91" s="11"/>
+      <c r="B91" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="C93" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A95" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A96" s="11"/>
+      <c r="B96" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A97" s="11"/>
+      <c r="B97" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="C99" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B100" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A101" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A102" s="11"/>
+      <c r="B102" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="F102" s="7"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A103" s="11"/>
+      <c r="B103" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="F103" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="C105" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="B106" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A108" s="11"/>
+      <c r="B108" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="F108" s="7"/>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A109" s="11"/>
+      <c r="B109" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="G19:G21"/>
+  <mergeCells count="30">
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="C105:F105"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C67:F67"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="I17:L17"/>
@@ -2324,10 +2780,11 @@
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="A26:A28"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="G19:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2335,11 +2792,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F33" sqref="A10:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2416,12 +2873,12 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1">
       <c r="B11" s="4" t="s">
@@ -2441,43 +2898,43 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="12"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="5" t="s">
         <v>98</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A14" s="12"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="12" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="4" t="s">
@@ -2497,7 +2954,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2509,7 +2966,7 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="12"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="5" t="s">
         <v>98</v>
       </c>
@@ -2517,7 +2974,7 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="12"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="5" t="s">
         <v>63</v>
       </c>
@@ -2526,12 +2983,12 @@
       <c r="F20" s="7"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1">
       <c r="B24" s="4" t="s">
@@ -2551,54 +3008,54 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="12" t="s">
         <v>135</v>
       </c>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A26" s="12"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A27" s="12"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="12" t="s">
         <v>139</v>
       </c>
       <c r="F27" s="7"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1">
       <c r="B30" s="4" t="s">
@@ -2618,52 +3075,52 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A32" s="12"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14" t="s">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A33" s="12"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="7"/>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="12" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2683,7 +3140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2696,21 +3153,21 @@
       <c r="A1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
@@ -2820,19 +3277,19 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:15">
       <c r="C9" s="3" t="s">
@@ -2897,14 +3354,14 @@
       <c r="H11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="12" t="s">
         <v>135</v>
       </c>
       <c r="J11" s="7"/>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="12" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2933,7 +3390,7 @@
       <c r="B13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>114</v>
       </c>
       <c r="D13" s="7"/>
@@ -2945,20 +3402,20 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="I15" s="3" t="s">
         <v>65</v>
       </c>
@@ -2999,13 +3456,13 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>128</v>
       </c>
       <c r="D17" s="7"/>
@@ -3017,19 +3474,19 @@
       <c r="H17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="12" t="s">
         <v>138</v>
       </c>
       <c r="K17" s="7"/>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A18" s="12"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="5" t="s">
         <v>98</v>
       </c>
@@ -3042,14 +3499,14 @@
         <v>98</v>
       </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="12" t="s">
         <v>139</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A19" s="12"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="5" t="s">
         <v>63</v>
       </c>
@@ -3061,24 +3518,24 @@
       <c r="H19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="12" t="s">
         <v>141</v>
       </c>
       <c r="K19" s="7"/>
-      <c r="L19" s="14" t="s">
+      <c r="L19" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
       <c r="I21" s="3" t="s">
         <v>65</v>
       </c>
@@ -3135,10 +3592,10 @@
       <c r="H23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14" t="s">
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3147,14 +3604,14 @@
       <c r="B24" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="12" t="s">
         <v>130</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="12" t="s">
         <v>132</v>
       </c>
       <c r="G24" s="6"/>
@@ -3162,7 +3619,7 @@
         <v>98</v>
       </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="14"/>
+      <c r="J24" s="12"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
@@ -3172,7 +3629,7 @@
         <v>63</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="12" t="s">
         <v>131</v>
       </c>
       <c r="E25" s="7"/>
@@ -3181,10 +3638,10 @@
       <c r="H25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="12" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3241,7 +3698,7 @@
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D29" s="7"/>
@@ -3253,16 +3710,16 @@
       <c r="H29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="L29" s="14" t="s">
+      <c r="L29" s="12" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3280,11 +3737,11 @@
         <v>98</v>
       </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="14" t="s">
+      <c r="J30" s="12" t="s">
         <v>147</v>
       </c>
       <c r="K30" s="7"/>
-      <c r="L30" s="14" t="s">
+      <c r="L30" s="12" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3301,14 +3758,14 @@
       <c r="H31" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="12" t="s">
         <v>151</v>
       </c>
       <c r="K31" s="7"/>
-      <c r="L31" s="14" t="s">
+      <c r="L31" s="12" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3401,14 +3858,14 @@
       <c r="H41" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="J41" s="14" t="s">
+      <c r="J41" s="12" t="s">
         <v>152</v>
       </c>
       <c r="K41" s="7"/>
-      <c r="L41" s="14" t="s">
+      <c r="L41" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3417,14 +3874,14 @@
       <c r="H42" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="12" t="s">
         <v>154</v>
       </c>
       <c r="K42" s="7"/>
-      <c r="L42" s="14" t="s">
+      <c r="L42" s="12" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3433,14 +3890,14 @@
       <c r="H43" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I43" s="14" t="s">
+      <c r="I43" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="J43" s="14" t="s">
+      <c r="J43" s="12" t="s">
         <v>155</v>
       </c>
       <c r="K43" s="7"/>
-      <c r="L43" s="14" t="s">
+      <c r="L43" s="12" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3521,10 +3978,10 @@
       <c r="H53" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I53" s="14" t="s">
+      <c r="I53" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="K53" s="14" t="s">
+      <c r="K53" s="12" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3572,10 +4029,10 @@
       <c r="H59" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J59" s="14" t="s">
+      <c r="J59" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="L59" s="14" t="s">
+      <c r="L59" s="12" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3584,13 +4041,13 @@
       <c r="H60" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I60" s="14" t="s">
+      <c r="I60" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="J60" s="14" t="s">
+      <c r="J60" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="L60" s="14" t="s">
+      <c r="L60" s="12" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3599,13 +4056,13 @@
       <c r="H61" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I61" s="14" t="s">
+      <c r="I61" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="J61" s="14" t="s">
+      <c r="J61" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="L61" s="14" t="s">
+      <c r="L61" s="12" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3623,7 +4080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3756,18 +4213,18 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="I9" s="11" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="I9" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:17">
       <c r="B10" s="4" t="s">
@@ -3802,13 +4259,13 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="16" t="s">
         <v>66</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -3816,17 +4273,17 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A12" s="12"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="5" t="s">
         <v>98</v>
       </c>
@@ -3834,30 +4291,30 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="12"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="5" t="s">
         <v>63</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="I15" s="11" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="I15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:17">
       <c r="B16" s="4" t="s">
@@ -3892,14 +4349,14 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="16" t="s">
         <v>66</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -3910,14 +4367,14 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A18" s="12"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="5" t="s">
         <v>98</v>
       </c>
@@ -3925,28 +4382,28 @@
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A19" s="12"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="5" t="s">
         <v>63</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="L19" s="14" t="s">
+      <c r="L19" s="12" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
       <c r="H21" s="4" t="s">
         <v>17</v>
       </c>
@@ -3979,7 +4436,7 @@
       <c r="F22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="16" t="s">
         <v>66</v>
       </c>
       <c r="H22" s="5" t="s">
@@ -3987,16 +4444,16 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="G23" s="12"/>
+      <c r="G23" s="16"/>
       <c r="H23" s="5" t="s">
         <v>98</v>
       </c>
@@ -4004,18 +4461,18 @@
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A24" s="12"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="G24" s="12"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="5" t="s">
         <v>63</v>
       </c>
@@ -4023,24 +4480,24 @@
       <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A25" s="12"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="12" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
       <c r="H27" s="4" t="s">
         <v>18</v>
       </c>
@@ -4073,7 +4530,7 @@
       <c r="F28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="16" t="s">
         <v>66</v>
       </c>
       <c r="H28" s="5" t="s">
@@ -4081,14 +4538,14 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="G29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="G29" s="16"/>
       <c r="H29" s="5" t="s">
         <v>98</v>
       </c>
@@ -4096,14 +4553,14 @@
       <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A30" s="12"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="16"/>
       <c r="H30" s="5" t="s">
         <v>63</v>
       </c>
@@ -4111,12 +4568,12 @@
       <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A31" s="12"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="D31" s="12"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="33" spans="1:12">
       <c r="C33" s="9" t="s">
@@ -4157,7 +4614,7 @@
       <c r="F34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="16" t="s">
         <v>66</v>
       </c>
       <c r="H34" s="5" t="s">
@@ -4171,11 +4628,11 @@
       <c r="B35" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="12"/>
+      <c r="G35" s="16"/>
       <c r="H35" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="12" t="s">
         <v>178</v>
       </c>
       <c r="L35" s="7"/>
@@ -4187,15 +4644,15 @@
       </c>
       <c r="C36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="12"/>
+      <c r="G36" s="16"/>
       <c r="H36" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="12" t="s">
         <v>143</v>
       </c>
       <c r="J36" s="2"/>
-      <c r="L36" s="14" t="s">
+      <c r="L36" s="12" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4245,7 +4702,7 @@
       <c r="F40" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="16" t="s">
         <v>66</v>
       </c>
       <c r="H40" s="5" t="s">
@@ -4260,7 +4717,7 @@
         <v>57</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="12"/>
+      <c r="G41" s="16"/>
       <c r="H41" s="5" t="s">
         <v>98</v>
       </c>
@@ -4274,7 +4731,7 @@
       </c>
       <c r="C42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="12"/>
+      <c r="G42" s="16"/>
       <c r="H42" s="5" t="s">
         <v>63</v>
       </c>
@@ -4327,7 +4784,7 @@
       <c r="F46" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="16" t="s">
         <v>66</v>
       </c>
       <c r="H46" s="5" t="s">
@@ -4342,7 +4799,7 @@
         <v>57</v>
       </c>
       <c r="F47" s="7"/>
-      <c r="G47" s="12"/>
+      <c r="G47" s="16"/>
       <c r="H47" s="5" t="s">
         <v>98</v>
       </c>
@@ -4355,11 +4812,11 @@
         <v>98</v>
       </c>
       <c r="C48" s="7"/>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="12" t="s">
         <v>173</v>
       </c>
       <c r="F48" s="7"/>
-      <c r="G48" s="12"/>
+      <c r="G48" s="16"/>
       <c r="H48" s="5" t="s">
         <v>63</v>
       </c>
@@ -4413,7 +4870,7 @@
         <v>98</v>
       </c>
       <c r="C54" s="7"/>
-      <c r="E54" s="14"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6">
@@ -4463,7 +4920,7 @@
         <v>98</v>
       </c>
       <c r="C60" s="7"/>
-      <c r="E60" s="14"/>
+      <c r="E60" s="12"/>
       <c r="F60" s="7"/>
     </row>
     <row r="61" spans="1:6">
@@ -4475,6 +4932,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="C27:F27"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="I9:L9"/>
@@ -4482,16 +4949,6 @@
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="G22:G24"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
